--- a/data/trans_orig/P14A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E046785D-F8C3-4276-AC49-2A0736DD59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69451FD-876F-4A92-8388-D2CFA541C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3330920-3500-4D1E-9571-BF07FEF5A4EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD9D0C01-124A-4DA0-9D1E-8ED3B5373673}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -114,13 +114,13 @@
     <t>88,61%</t>
   </si>
   <si>
-    <t>49,75%</t>
+    <t>49,71%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>69,59%</t>
+    <t>70,29%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -129,13 +129,13 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>50,25%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>30,41%</t>
+    <t>29,71%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -147,13 +147,13 @@
     <t>92,75%</t>
   </si>
   <si>
-    <t>70,22%</t>
+    <t>70,14%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>77,04%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -162,13 +162,13 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>29,78%</t>
+    <t>29,86%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>22,96%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -177,7 +177,7 @@
     <t>91,84%</t>
   </si>
   <si>
-    <t>72,16%</t>
+    <t>73,79%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -186,13 +186,13 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>86,33%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>26,21%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -201,7 +201,7 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>13,67%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -210,37 +210,37 @@
     <t>97,97%</t>
   </si>
   <si>
-    <t>89,34%</t>
+    <t>87,95%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>90,55%</t>
+    <t>89,61%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>93,1%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>10,66%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>10,39%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>6,9%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -249,67 +249,67 @@
     <t>95,21%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,53%</t>
+    <t>93,84%</t>
   </si>
   <si>
     <t>98,03%</t>
@@ -318,16 +318,16 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -336,16 +336,16 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -366,25 +366,25 @@
     <t>79,06%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>55,07%</t>
+    <t>42,1%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>80,64%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>44,93%</t>
+    <t>57,9%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -411,13 +411,13 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>76,26%</t>
+    <t>76,34%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>90,9%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -426,82 +426,82 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>23,74%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>87,64%</t>
+    <t>87,39%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,46%</t>
+    <t>96,23%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -510,16 +510,16 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -528,61 +528,61 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF669CC-84F4-4AA1-833C-6AA5FDFB2553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD982FAD-5AF8-491A-8096-958B7C9ED268}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38586676-D4EE-414E-B85D-E02F6DB3EC46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4D769A-1729-4CFD-BAD1-A3E2E633A468}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69451FD-876F-4A92-8388-D2CFA541C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{400FF5BE-B76F-4E01-BFF2-79D6C7C2C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD9D0C01-124A-4DA0-9D1E-8ED3B5373673}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF6F5AFA-EB39-4251-A4FC-7FF970ADD810}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,13 +114,13 @@
     <t>88,61%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>70,29%</t>
+    <t>69,65%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -129,13 +129,13 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>30,35%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -147,13 +147,13 @@
     <t>92,75%</t>
   </si>
   <si>
-    <t>70,14%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>71,67%</t>
+    <t>77,05%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -162,13 +162,13 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>29,86%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>28,33%</t>
+    <t>22,95%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -177,7 +177,7 @@
     <t>91,84%</t>
   </si>
   <si>
-    <t>73,79%</t>
+    <t>74,98%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -186,13 +186,13 @@
     <t>95,48%</t>
   </si>
   <si>
-    <t>86,33%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>26,21%</t>
+    <t>25,02%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -201,7 +201,7 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -210,37 +210,37 @@
     <t>97,97%</t>
   </si>
   <si>
-    <t>87,95%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>89,61%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>92,96%</t>
+    <t>93,78%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>10,39%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>6,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -249,109 +249,109 @@
     <t>95,21%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por diabetes en 2015 (Tasa respuesta: 8,45%)</t>
+    <t>Población que recibe medicación o terapia por diabetes en 2016 (Tasa respuesta: 8,45%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -366,25 +366,25 @@
     <t>79,06%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>42,1%</t>
+    <t>55,07%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>81,16%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>57,9%</t>
+    <t>44,93%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -411,13 +411,13 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>76,34%</t>
+    <t>76,27%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>90,9%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -426,115 +426,115 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>23,73%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>87,39%</t>
+    <t>87,86%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>12,61%</t>
+    <t>12,14%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -543,19 +543,19 @@
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -564,25 +564,25 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD982FAD-5AF8-491A-8096-958B7C9ED268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412A133-250A-405F-A1D4-0480445EACF6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4D769A-1729-4CFD-BAD1-A3E2E633A468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1A63F-9159-481D-BCD7-AD8E3930EA6C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
